--- a/data/2/20230603-a1r-yc-session2-n_transcript.xlsx
+++ b/data/2/20230603-a1r-yc-session2-n_transcript.xlsx
@@ -1,414 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 2/EXCEL 06:03 session 2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0BD63D-1DEA-F546-9D83-13133D2687AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230603-a1r-yc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"17:56"</t>
-  </si>
-  <si>
-    <t>Well I'll start out by saying I don't like it just because I feel that it would allow parties to kind of stay in power that if they have an outsider that comes in that might not that the people might like but they don't like it gives them more opportunity to elect or put in. Put somebody up for election that they want instead of who the people truly prefer.</t>
-  </si>
-  <si>
-    <t>"18:24"</t>
-  </si>
-  <si>
-    <t>I'm backing up. Brian Brian 100%. It's too much concentration of power, but the people speak, not a few of the elites running things, that's probably half the problems country, right.</t>
-  </si>
-  <si>
-    <t>"18:39"</t>
-  </si>
-  <si>
-    <t>I would say that like currently only a few of the elites are speaking. So I think I'm not a hundred percent like, okay with the what's happening like this approach, but something has to be done. So, like this might be a good step since we've never done it because right now with currently happening isn't working.</t>
-  </si>
-  <si>
-    <t>"18:58"</t>
-  </si>
-  <si>
-    <t>I completely agree with that because if it's not working then you need to change it and do something better. I completely agree with both of those statements.</t>
-  </si>
-  <si>
-    <t>"20:44"</t>
-  </si>
-  <si>
-    <t>Keep the current Electoral College. You go to a popular vote, you end up before five states being all its takes to win the rest of states are totally irrelevant to the election process at all. If you look at history, the civilizations countries that have had pure democracy of crumbled doing due to the Mob action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wave an attractive flag or symbol or something. In front of the mob, they'll follow it. And the country goes down this, this prevents the tyranny of the majority.</t>
-  </si>
-  <si>
-    <t>"21:24"</t>
-  </si>
-  <si>
-    <t>I completely agree, but also like I would keep it the same if it's working, don't change it. If it's not working, then you need to do something about it. But right now, I think it's working pretty well.</t>
-  </si>
-  <si>
-    <t>"21:39"</t>
-  </si>
-  <si>
-    <t>I kind of like the idea of rank Choice voting, but I do think we should keep the Electoral College, so maybe just like use ranked Choice voting, instead of the popular vote in each state to determine the Electoral College votes.</t>
-  </si>
-  <si>
-    <t>"21:58"</t>
-  </si>
-  <si>
-    <t>I think the elect the, the Electoral College votes aren't working for anyone because Minnesota and of one of those mental States like Wyoming has three times as many heads, much say in the election, then California who does, and they have a three times as many people than Montana, Nebraska Wyoming and the popular vote like that tells you what the people want. Like, you can't say that people are idiots, like you have to listen to what they're saying and when you do the Electoral like the majority doesn't want. It's just basically these people like them and</t>
-  </si>
-  <si>
-    <t>Like 49 percent to fifty, one percent or whatever 48 like whatever but it's just like it's not fair.</t>
-  </si>
-  <si>
-    <t>"22:36"</t>
-  </si>
-  <si>
-    <t>While it might not be the popular vote, I still think that it's probably, I think there's some genius in it. When it was set up in that, you have to care about every state. You can't just focus on, you know, the top 10 populated city, most populated cities. And then forget about Wyoming. Forget about Nebraska forget about Kansas, because there isn't enough people in there to care about, you can lose that whole state. If you hit the big cities and then you're good, and then, you know, then you have the cities, you know, running everything and</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and really the rural, the farmers, the Cattleman all of these people that provide for a lot of the things within our country, have no voice and you'll see candidates not even care about that area.</t>
-  </si>
-  <si>
-    <t>"23:17"</t>
-  </si>
-  <si>
-    <t>I'm also in favor of the current system. I agree. The polarization is a big problem right now, but I mean, I'm not sure if I make any change to the electoral college system will improve the situation.</t>
-  </si>
-  <si>
-    <t>"23:38"</t>
-  </si>
-  <si>
-    <t>yeah, maybe I misunderstood could you explain how those smaller states have more of an impact than like California, because I thought California had way more Electoral College votes that like most other states,</t>
-  </si>
-  <si>
-    <t>"23:55"</t>
-  </si>
-  <si>
-    <t>California has more lip Colour Electoral College votes, correct. But Montana has significantly less people. So every state has to have at least electric three, electorates. But like, when you think per capita, there are a lot less people than there are in California and also that comment about back into in 1777 when they looked her college, was made up there were only 13 states and the the environment there is a lot different than it is now. So we need to make a system that represents the people who are currently at the table. Not someone who</t>
-  </si>
-  <si>
-    <t>Made it 2258 years ago when they were slave owners, or they just didn't have the same problems that we have now.</t>
-  </si>
-  <si>
-    <t>"26:19"</t>
-  </si>
-  <si>
-    <t>All right.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National state, popular vote compact is clearly unconstitutional. It's an end run around the Constitution. They know, the people pushing it know, they cannot get a constitutional amendment to change it. So, it's try to slide this by instead and what? If I'm to comes up to the court, it'll be canceled.</t>
-  </si>
-  <si>
-    <t>"26:46"</t>
-  </si>
-  <si>
-    <t>I think this yeah just seems like it's kind of a workaround to the Electoral College like completely ignoring what the state voted for in favor of whatever the popular vote of the nation was like that. It doesn't really seem to make sense.</t>
-  </si>
-  <si>
-    <t>"27:06"</t>
-  </si>
-  <si>
-    <t>Yep, I'm in total agreement with that. I think it is very politically driven and I you know, according to our Constitution Article 1 Section 10 Clause 3, no State shall without the consent of Congress enter into any agreement or compact with another state. I think I'll be shot down once it gets up there but you know they can keep trying. I</t>
-  </si>
-  <si>
-    <t>"27:25"</t>
-  </si>
-  <si>
-    <t>I completely agree with what they said. I mean it'll probably get you know, thrown away but they can try all. They want to change it. I don't think it's gone.</t>
-  </si>
-  <si>
-    <t>"27:36"</t>
-  </si>
-  <si>
-    <t>So, the Constitution has amendments because it's meant to be changed again. I go back to my comment of, like, a lot of us weren't at the table. A lot of people whose interests are now valued by people of color. They wanted the table in this constitution was made and this this would you guys say like swing States, like this says that it will keep people from focusing just on swing States. I'd have to talk to everyone, to hear everyone's opinion.</t>
-  </si>
-  <si>
-    <t>"28:02"</t>
-  </si>
-  <si>
-    <t>I'm totally okay with all that train of thought, but I don't think States as states can just start forming compacts with others. It's not it's that's not according to our Constitution and if they want to go about and change the Constitution, then bring it up through that process, not just forming these compacts with other other states. I think it's not, right.</t>
-  </si>
-  <si>
-    <t>"28:23"</t>
-  </si>
-  <si>
-    <t>yeah, I'm still trying to form this thought, but like</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I think what you would have then is your candidates are going to focus on those highly populated areas, kind of, like, how they do is Swing States. Now to just try to swing the national vote in their favor. So that those states that are in the compact that have to give all their electoral votes to that candidate.</t>
-  </si>
-  <si>
-    <t>"28:49"</t>
-  </si>
-  <si>
-    <t>But that's kind of how it works. Now you go to the swing state and I'm going to get all 42 of Ohio's boats about how to plant 42, but it's still like this, gives it a more complete like a more distributed and evenly distributed way than just doing the swing States.</t>
-  </si>
-  <si>
-    <t>"29:06"</t>
-  </si>
-  <si>
-    <t>I completely agree with Brian. I don't, if you want to go and do it, go through the contest Constitution, but I don't think it needs to be fixed and mended. We have it for a reason and it's been working. So, why should I</t>
-  </si>
-  <si>
-    <t>"30:46"</t>
-  </si>
-  <si>
-    <t>I think they need to stay the same Pros one or proposal three. I think would be</t>
-  </si>
-  <si>
-    <t>"30:55"</t>
-  </si>
-  <si>
-    <t>I think we need term limits because currently with this lifetime appointment, we're seeing now that they can be, bought their votes can be bought and that they can. The courts can be not matching patch, but like, depending on their political affiliation, like one president shouldn't get the point for people. And like a lot of the times will take those people aren't really qualified. They just have made deals in our friends or just in the right place at the right time.</t>
-  </si>
-  <si>
-    <t>"31:22"</t>
-  </si>
-  <si>
-    <t>Yeah, I think I agree with the term limits. Not only can they be bought, but they can if they're there for decades like the like out of touch with what's going on in the country and kind of like it's a country shifts, then they won't be like in touch with that.</t>
-  </si>
-  <si>
-    <t>"31:41"</t>
-  </si>
-  <si>
-    <t>The amendment to prevent term pack German attacking we've seen. Some tries at talk about it. I don't think it could happen. I don't know if we need the amendment, but it would be a terrible thing. If it did happen, I don't agree with term limits. I agree with an age limit, it should be a certain age, you are required to read.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Retire.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And what was the other one? That and of course, ethical standards should be the same across the board.</t>
-  </si>
-  <si>
-    <t>"32:22"</t>
-  </si>
-  <si>
-    <t>Yeah, I guess. I my biggest thing with this is it's I think it's sad that justices from both sides. The two parties aren't ruling on laws but it's more political and so everything is getting political and they're not just they're legislating from the bench instead of just ruling on certain laws whether it's legal or not. And so with that, I think all of this is, you know, boils down to</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Parties, that didn't get what they wanted, you know, on both sides. I'm not saying one or the other with certain decisions and now we have to change it because we didn't get what we wanted. I think it's pretty good. I don't I'm not totally for term limits but I don't totally disagree with them either.</t>
-  </si>
-  <si>
-    <t>"33:11"</t>
-  </si>
-  <si>
-    <t>I completely agree with what Bronte.</t>
-  </si>
-  <si>
-    <t>"33:15"</t>
-  </si>
-  <si>
-    <t>it's not listed here, but there needs to be a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> An agreement of our state and by anybody going on the Supreme Court that they're an original constitutionalist and none of this living document foolishness.</t>
-  </si>
-  <si>
-    <t>"33:56"</t>
-  </si>
-  <si>
-    <t>What do you mean by that? Jeff.</t>
-  </si>
-  <si>
-    <t>"34:00"</t>
-  </si>
-  <si>
-    <t>The original interpretation people say the Constitution means exactly what it says and if it's to be determined D, determine from like to call Federalist Papers, the writings of the people at the time, it was written. That's what it means. There's a large group of people as been stated who are not getting what they want legislatively. So they want the Constitution interpreted as to the mores of the day, the present day.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And next week, of course, was more has changed. So we changed with the Constitution means and you end up having something that doesn't mean anything because it can be changed as you as the condition of the country changes.</t>
-  </si>
-  <si>
-    <t>"36:10"</t>
-  </si>
-  <si>
-    <t>Okay, funding Civics and government should be a required course, in high school required. There's I've seen too many of the YouTube videos on in a group interview in college people. They have no idea who the president is, what Congress is nothing. I've talked to many people, younger people, not a clue,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If they're not educated, they don't know, they're ignorant, they can be educated and they should be else. The rest of it just doesn't matter and we definitely need to open up the opportunity for discussion between and debate between the students. So they can learn to have an honest discussion without worrying about being a</t>
-  </si>
-  <si>
-    <t>"36:55"</t>
-  </si>
-  <si>
-    <t>I really agree with like Jeff and like his thoughts because like, it allows them to learn how to have those difficult conversations with people have differing views so that they could potentially find that that not consensus. But a way to move forward, that does the entire group good, but they see each other sighs, they have that aha moment. Like, you know what, maybe what you're saying, isn't that bad? How do we find a way to move forward? That is that, that is good for both of us or all of us.</t>
-  </si>
-  <si>
-    <t>"37:26"</t>
-  </si>
-  <si>
-    <t>Yeah I agree. I think more education and more funding should be put into education and with technology like right now we are using, you know, this kind of platform to have conversation across state borders. So it's also there's more access and he's for people from diverse communities to come together and have conversations.</t>
-  </si>
-  <si>
-    <t>"37:53"</t>
-  </si>
-  <si>
-    <t>I completely agree. I think there needs to be a course in high school mandated to take. So because there's so many people like that are my age that are going out of college that don't even know the president. And I think that that's one thing that needs to be done as of course, in college and high school or college.</t>
-  </si>
-  <si>
-    <t>"38:13"</t>
-  </si>
-  <si>
-    <t>Yeah, I think it's even more than just like a single course because I took a Civics course and like it. It didn't really stick. It's pretty embarrassing. How little I know about this doll. Yeah, I think, I think a lot of our education especially at the middle and high school level needs to be rethought. And I think this is</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This would be a huge part of that is like focusing on on government and making sure that all of our high school graduates, understand how our government works.</t>
-  </si>
-  <si>
-    <t>"38:46"</t>
-  </si>
-  <si>
-    <t>Totally agree with kind of, everything's been said, yes, we need to increase education on this. I guess what kind of gets a little sticking point for me is to increase state and local funding. Why are why are? Why are the school boards and curriculum writers? And all of the standards on the school's not putting this in mean they have money to teach biology math all of this or I mean they're running schools. Why is this not just a priority? Why do we have to always, just throw money at it? Throw more money at it to get him to do it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> They should just be in my mind. It should be a mandatory thing, you know, where they're teaching this within the history classes growing up, you know, and lower grades through, you know, Civics and all of that in high school and Beyond</t>
-  </si>
-  <si>
-    <t>"39:31"</t>
-  </si>
-  <si>
-    <t>Actually there's very little funding going into the Sciences, most of the money goes into sports and things like that. And like I do agree that it does. But then even if you think about school funding, what about the lower income schools? Like they, it's like funding. I don't know if this is everywhere, but on a high old, like the amount of money you get for your school, depends on what the taxes in that City. So like it needs to be something that's Universal and Broad. So that all of our students are getting the same amount of information when it comes to when it comes to Civics and things like that and having those difficult conversations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> is about how to make sure that we are getting along and that everyone is being brought together and equitability and learning and all those</t>
-  </si>
-  <si>
-    <t>"40:09"</t>
-  </si>
-  <si>
-    <t>Yeah, I saw Anna just brought up some good points and everything, but I was going to say it should be like instead of increased funding like redirecting funding, because I think there's classes that a lot of high school students. Take thats like you don't need like I took calculus and like I'm not going to be doing calculus ever but like understanding, you know, the three branches of our government. That would probably be a lot more useful, a lot better use of my time.</t>
-  </si>
-  <si>
-    <t>"40:42"</t>
-  </si>
-  <si>
-    <t>I think that touch base on make the lower income schools because I'm in Tennessee and there is you know the schools are not as adjusted and stuff to the big schools like in Ohio. I think all of these schools, no matter what State Should be on the same agenda level, just because I'm not going to be able to. I don't get to learn what the other person is. So are just because they're in a different state. I don't think that's correct. I don't think that's right. And I</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anyway, and that's how I feel about that.</t>
-  </si>
-  <si>
-    <t>"45:58"</t>
-  </si>
-  <si>
-    <t>Vanessa on that your questions pretty good. I think the schools everywhere need to be on the same base curriculum and would matter which state. There should be a base curriculum, but you also need to leave room for local control on. What would be</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Relevant to the people in that area.</t>
-  </si>
-  <si>
-    <t>"46:24"</t>
-  </si>
-  <si>
-    <t>Hey Jeff. Can you get an example will be relevant to someone and like Ohio versus Kentucky? Like how do you like determine like how something only fits one specific group of people?</t>
-  </si>
-  <si>
-    <t>"46:35"</t>
-  </si>
-  <si>
-    <t>Well, I can say like and Tennessee. There's more farming and stuff along those lines. So we do a lot more for H, than a lot of other places. So, I mean that I think that the base curriculums would be the same, but there should be like clubs and other activities that can be based on the community and we're there.</t>
-  </si>
-  <si>
-    <t>"46:58"</t>
-  </si>
-  <si>
-    <t>Yeah, I mean I would think the base of like an example of something in the base. Curriculum would be the federal government, the structure of the federal government because it's the federal government. And then, you know, like something that's more specific to location would be like a state government, how your individual state government is set up</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -484,44 +113,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -590,14 +219,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1672,839 +1293,1018 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS67"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="1" ht="20.25" customHeight="1" s="9">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="9">
+      <c r="A2" s="4" t="n">
         <v>48458</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>"17:56"</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Well I'll start out by saying I don't like it just because I feel that it would allow parties to kind of stay in power that if they have an outsider that comes in that might not that the people might like but they don't like it gives them more opportunity to elect or put in. Put somebody up for election that they want instead of who the people truly prefer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="9">
+      <c r="A3" s="4" t="n">
         <v>48316</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>"18:24"</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>I'm backing up. Brian Brian 100%. It's too much concentration of power, but the people speak, not a few of the elites running things, that's probably half the problems country, right.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="9">
+      <c r="A4" s="4" t="n">
         <v>48362</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>"18:39"</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>I would say that like currently only a few of the elites are speaking. So I think I'm not a hundred percent like, okay with the what's happening like this approach, but something has to be done. So, like this might be a good step since we've never done it because right now with currently happening isn't working.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="9">
+      <c r="A5" s="4" t="n">
         <v>10716</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>"18:58"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>I completely agree with that because if it's not working then you need to change it and do something better. I completely agree with both of those statements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="9">
+      <c r="A6" s="4" t="n">
         <v>48316</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>"20:44"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Keep the current Electoral College. You go to a popular vote, you end up before five states being all its takes to win the rest of states are totally irrelevant to the election process at all. If you look at history, the civilizations countries that have had pure democracy of crumbled doing due to the Mob action.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="9">
+      <c r="A7" s="4" t="n">
         <v>48316</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>"20:44"</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wave an attractive flag or symbol or something. In front of the mob, they'll follow it. And the country goes down this, this prevents the tyranny of the majority.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="9">
+      <c r="A8" s="4" t="n">
         <v>10716</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>"21:24"</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>I completely agree, but also like I would keep it the same if it's working, don't change it. If it's not working, then you need to do something about it. But right now, I think it's working pretty well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="9">
+      <c r="A9" s="4" t="n">
         <v>10425</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>"21:39"</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>I kind of like the idea of rank Choice voting, but I do think we should keep the Electoral College, so maybe just like use ranked Choice voting, instead of the popular vote in each state to determine the Electoral College votes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="9">
+      <c r="A10" s="4" t="n">
         <v>48362</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>"21:58"</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>I think the elect the, the Electoral College votes aren't working for anyone because Minnesota and of one of those mental States like Wyoming has three times as many heads, much say in the election, then California who does, and they have a three times as many people than Montana, Nebraska Wyoming and the popular vote like that tells you what the people want. Like, you can't say that people are idiots, like you have to listen to what they're saying and when you do the Electoral like the majority doesn't want. It's just basically these people like them and</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="9">
+      <c r="A11" s="4" t="n">
         <v>48362</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>"21:58"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Like 49 percent to fifty, one percent or whatever 48 like whatever but it's just like it's not fair.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="9">
+      <c r="A12" s="4" t="n">
         <v>48458</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>"22:36"</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>While it might not be the popular vote, I still think that it's probably, I think there's some genius in it. When it was set up in that, you have to care about every state. You can't just focus on, you know, the top 10 populated city, most populated cities. And then forget about Wyoming. Forget about Nebraska forget about Kansas, because there isn't enough people in there to care about, you can lose that whole state. If you hit the big cities and then you're good, and then, you know, then you have the cities, you know, running everything and</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="9">
+      <c r="A13" s="4" t="n">
         <v>48458</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>"22:36"</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> and really the rural, the farmers, the Cattleman all of these people that provide for a lot of the things within our country, have no voice and you'll see candidates not even care about that area.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="9">
+      <c r="A14" s="4" t="n">
         <v>48456</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>"23:17"</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>I'm also in favor of the current system. I agree. The polarization is a big problem right now, but I mean, I'm not sure if I make any change to the electoral college system will improve the situation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="9">
+      <c r="A15" s="4" t="n">
         <v>10425</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>"23:38"</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>yeah, maybe I misunderstood could you explain how those smaller states have more of an impact than like California, because I thought California had way more Electoral College votes that like most other states,</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="9">
+      <c r="A16" s="4" t="n">
         <v>48362</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>"23:55"</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>California has more lip Colour Electoral College votes, correct. But Montana has significantly less people. So every state has to have at least electric three, electorates. But like, when you think per capita, there are a lot less people than there are in California and also that comment about back into in 1777 when they looked her college, was made up there were only 13 states and the the environment there is a lot different than it is now. So we need to make a system that represents the people who are currently at the table. Not someone who</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="9">
+      <c r="A17" s="4" t="n">
         <v>48362</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>"23:55"</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Made it 2258 years ago when they were slave owners, or they just didn't have the same problems that we have now.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="9">
+      <c r="A18" s="4" t="n">
         <v>48316</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>"26:19"</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>All right.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="9">
+      <c r="A19" s="4" t="n">
         <v>48316</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>"26:19"</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> National state, popular vote compact is clearly unconstitutional. It's an end run around the Constitution. They know, the people pushing it know, they cannot get a constitutional amendment to change it. So, it's try to slide this by instead and what? If I'm to comes up to the court, it'll be canceled.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="9">
+      <c r="A20" s="4" t="n">
         <v>10425</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>"26:46"</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="9">
+      <c r="A21" s="4" t="n">
         <v>10425</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>"26:46"</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>I think this yeah just seems like it's kind of a workaround to the Electoral College like completely ignoring what the state voted for in favor of whatever the popular vote of the nation was like that. It doesn't really seem to make sense.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="9">
+      <c r="A22" s="4" t="n">
         <v>48458</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>"27:06"</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>Yep, I'm in total agreement with that. I think it is very politically driven and I you know, according to our Constitution Article 1 Section 10 Clause 3, no State shall without the consent of Congress enter into any agreement or compact with another state. I think I'll be shot down once it gets up there but you know they can keep trying. I</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="9">
+      <c r="A23" s="4" t="n">
         <v>10716</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>"27:25"</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>I completely agree with what they said. I mean it'll probably get you know, thrown away but they can try all. They want to change it. I don't think it's gone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="9">
+      <c r="A24" s="4" t="n">
         <v>48362</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>"27:36"</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>So, the Constitution has amendments because it's meant to be changed again. I go back to my comment of, like, a lot of us weren't at the table. A lot of people whose interests are now valued by people of color. They wanted the table in this constitution was made and this this would you guys say like swing States, like this says that it will keep people from focusing just on swing States. I'd have to talk to everyone, to hear everyone's opinion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="9">
+      <c r="A25" s="4" t="n">
         <v>48458</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>"28:02"</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>I'm totally okay with all that train of thought, but I don't think States as states can just start forming compacts with others. It's not it's that's not according to our Constitution and if they want to go about and change the Constitution, then bring it up through that process, not just forming these compacts with other other states. I think it's not, right.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="9">
+      <c r="A26" s="4" t="n">
         <v>10425</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>"28:23"</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>yeah, I'm still trying to form this thought, but like</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="9">
+      <c r="A27" s="4" t="n">
         <v>10425</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>"28:23"</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I think what you would have then is your candidates are going to focus on those highly populated areas, kind of, like, how they do is Swing States. Now to just try to swing the national vote in their favor. So that those states that are in the compact that have to give all their electoral votes to that candidate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="9">
+      <c r="A28" s="4" t="n">
         <v>48362</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>"28:49"</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>But that's kind of how it works. Now you go to the swing state and I'm going to get all 42 of Ohio's boats about how to plant 42, but it's still like this, gives it a more complete like a more distributed and evenly distributed way than just doing the swing States.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="9">
+      <c r="A29" s="4" t="n">
         <v>10716</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>"29:06"</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>I completely agree with Brian. I don't, if you want to go and do it, go through the contest Constitution, but I don't think it needs to be fixed and mended. We have it for a reason and it's been working. So, why should I</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="9">
+      <c r="A30" s="4" t="n">
         <v>10716</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>"30:46"</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>I think they need to stay the same Pros one or proposal three. I think would be</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="9">
+      <c r="A31" s="4" t="n">
         <v>48362</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>"30:55"</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>I think we need term limits because currently with this lifetime appointment, we're seeing now that they can be, bought their votes can be bought and that they can. The courts can be not matching patch, but like, depending on their political affiliation, like one president shouldn't get the point for people. And like a lot of the times will take those people aren't really qualified. They just have made deals in our friends or just in the right place at the right time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="9">
+      <c r="A32" s="4" t="n">
         <v>10425</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>"31:22"</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I think I agree with the term limits. Not only can they be bought, but they can if they're there for decades like the like out of touch with what's going on in the country and kind of like it's a country shifts, then they won't be like in touch with that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="9">
+      <c r="A33" s="4" t="n">
         <v>48316</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>"31:41"</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>The amendment to prevent term pack German attacking we've seen. Some tries at talk about it. I don't think it could happen. I don't know if we need the amendment, but it would be a terrible thing. If it did happen, I don't agree with term limits. I agree with an age limit, it should be a certain age, you are required to read.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="9">
+      <c r="A34" s="4" t="n">
         <v>48316</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>"31:41"</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="9">
+      <c r="A35" s="4" t="n">
         <v>48316</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>"31:41"</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And what was the other one? That and of course, ethical standards should be the same across the board.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="9">
+      <c r="A36" s="4" t="n">
         <v>48458</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>"32:22"</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I guess. I my biggest thing with this is it's I think it's sad that justices from both sides. The two parties aren't ruling on laws but it's more political and so everything is getting political and they're not just they're legislating from the bench instead of just ruling on certain laws whether it's legal or not. And so with that, I think all of this is, you know, boils down to</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="9">
+      <c r="A37" s="4" t="n">
         <v>48458</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>"32:22"</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Parties, that didn't get what they wanted, you know, on both sides. I'm not saying one or the other with certain decisions and now we have to change it because we didn't get what we wanted. I think it's pretty good. I don't I'm not totally for term limits but I don't totally disagree with them either.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="9">
+      <c r="A38" s="4" t="n">
         <v>10716</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>"33:11"</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>I completely agree with what Bronte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="9">
+      <c r="A39" s="4" t="n">
         <v>48316</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>"33:15"</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>it's not listed here, but there needs to be a</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="9">
+      <c r="A40" s="4" t="n">
         <v>48316</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>"33:15"</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> An agreement of our state and by anybody going on the Supreme Court that they're an original constitutionalist and none of this living document foolishness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="9">
+      <c r="A41" s="4" t="n">
         <v>10425</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>"33:56"</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>What do you mean by that? Jeff.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="9">
+      <c r="A42" s="4" t="n">
         <v>48316</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>"34:00"</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>The original interpretation people say the Constitution means exactly what it says and if it's to be determined D, determine from like to call Federalist Papers, the writings of the people at the time, it was written. That's what it means. There's a large group of people as been stated who are not getting what they want legislatively. So they want the Constitution interpreted as to the mores of the day, the present day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="9">
+      <c r="A43" s="4" t="n">
         <v>48316</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>"34:00"</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And next week, of course, was more has changed. So we changed with the Constitution means and you end up having something that doesn't mean anything because it can be changed as you as the condition of the country changes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="9">
+      <c r="A44" s="4" t="n">
         <v>48316</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>"36:10"</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>Okay, funding Civics and government should be a required course, in high school required. There's I've seen too many of the YouTube videos on in a group interview in college people. They have no idea who the president is, what Congress is nothing. I've talked to many people, younger people, not a clue,</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="9">
+      <c r="A45" s="4" t="n">
         <v>48316</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>"36:10"</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> If they're not educated, they don't know, they're ignorant, they can be educated and they should be else. The rest of it just doesn't matter and we definitely need to open up the opportunity for discussion between and debate between the students. So they can learn to have an honest discussion without worrying about being a</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="9">
+      <c r="A46" s="4" t="n">
         <v>48362</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>"36:55"</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>I really agree with like Jeff and like his thoughts because like, it allows them to learn how to have those difficult conversations with people have differing views so that they could potentially find that that not consensus. But a way to move forward, that does the entire group good, but they see each other sighs, they have that aha moment. Like, you know what, maybe what you're saying, isn't that bad? How do we find a way to move forward? That is that, that is good for both of us or all of us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="9">
+      <c r="A47" s="4" t="n">
         <v>48456</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>"37:26"</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>Yeah I agree. I think more education and more funding should be put into education and with technology like right now we are using, you know, this kind of platform to have conversation across state borders. So it's also there's more access and he's for people from diverse communities to come together and have conversations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="9">
+      <c r="A48" s="4" t="n">
         <v>10716</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>"37:53"</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>I completely agree. I think there needs to be a course in high school mandated to take. So because there's so many people like that are my age that are going out of college that don't even know the president. And I think that that's one thing that needs to be done as of course, in college and high school or college.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="9">
+      <c r="A49" s="4" t="n">
         <v>10425</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>"38:13"</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="n"/>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="9">
+      <c r="A50" s="4" t="n">
         <v>10425</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>"38:13"</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I think it's even more than just like a single course because I took a Civics course and like it. It didn't really stick. It's pretty embarrassing. How little I know about this doll. Yeah, I think, I think a lot of our education especially at the middle and high school level needs to be rethought. And I think this is</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="9">
+      <c r="A51" s="4" t="n">
         <v>10425</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>"38:13"</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This would be a huge part of that is like focusing on on government and making sure that all of our high school graduates, understand how our government works.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="9">
+      <c r="A52" s="4" t="n">
         <v>48458</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>"38:46"</t>
+        </is>
+      </c>
+      <c r="C52" s="6" t="n"/>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="9">
+      <c r="A53" s="4" t="n">
         <v>48458</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>"38:46"</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>Totally agree with kind of, everything's been said, yes, we need to increase education on this. I guess what kind of gets a little sticking point for me is to increase state and local funding. Why are why are? Why are the school boards and curriculum writers? And all of the standards on the school's not putting this in mean they have money to teach biology math all of this or I mean they're running schools. Why is this not just a priority? Why do we have to always, just throw money at it? Throw more money at it to get him to do it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="9">
+      <c r="A54" s="4" t="n">
         <v>48458</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>"38:46"</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> They should just be in my mind. It should be a mandatory thing, you know, where they're teaching this within the history classes growing up, you know, and lower grades through, you know, Civics and all of that in high school and Beyond</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="9">
+      <c r="A55" s="4" t="n">
         <v>48362</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>"39:31"</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>Actually there's very little funding going into the Sciences, most of the money goes into sports and things like that. And like I do agree that it does. But then even if you think about school funding, what about the lower income schools? Like they, it's like funding. I don't know if this is everywhere, but on a high old, like the amount of money you get for your school, depends on what the taxes in that City. So like it needs to be something that's Universal and Broad. So that all of our students are getting the same amount of information when it comes to when it comes to Civics and things like that and having those difficult conversations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="9">
+      <c r="A56" s="4" t="n">
         <v>48362</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>"39:31"</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> is about how to make sure that we are getting along and that everyone is being brought together and equitability and learning and all those</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="9">
+      <c r="A57" s="4" t="n">
         <v>10425</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>"40:09"</t>
+        </is>
+      </c>
+      <c r="C57" s="6" t="n"/>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="9">
+      <c r="A58" s="4" t="n">
         <v>10425</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4">
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>"40:09"</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I saw Anna just brought up some good points and everything, but I was going to say it should be like instead of increased funding like redirecting funding, because I think there's classes that a lot of high school students. Take thats like you don't need like I took calculus and like I'm not going to be doing calculus ever but like understanding, you know, the three branches of our government. That would probably be a lot more useful, a lot better use of my time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="9">
+      <c r="A59" s="4" t="n">
         <v>10716</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>"40:42"</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>I think that touch base on make the lower income schools because I'm in Tennessee and there is you know the schools are not as adjusted and stuff to the big schools like in Ohio. I think all of these schools, no matter what State Should be on the same agenda level, just because I'm not going to be able to. I don't get to learn what the other person is. So are just because they're in a different state. I don't think that's correct. I don't think that's right. And I</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="9">
+      <c r="A60" s="4" t="n">
         <v>10716</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>"40:42"</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Anyway, and that's how I feel about that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="9">
+      <c r="A61" s="4" t="n">
         <v>10716</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>"40:42"</t>
+        </is>
+      </c>
+      <c r="C61" s="6" t="n"/>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="9">
+      <c r="A62" s="4" t="n">
         <v>48316</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>"45:58"</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>Vanessa on that your questions pretty good. I think the schools everywhere need to be on the same base curriculum and would matter which state. There should be a base curriculum, but you also need to leave room for local control on. What would be</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="9">
+      <c r="A63" s="4" t="n">
         <v>48316</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4">
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>"45:58"</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Relevant to the people in that area.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" s="9">
+      <c r="A64" s="4" t="n">
         <v>48362</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4">
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>"46:24"</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>Hey Jeff. Can you get an example will be relevant to someone and like Ohio versus Kentucky? Like how do you like determine like how something only fits one specific group of people?</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" s="9">
+      <c r="A65" s="4" t="n">
         <v>10716</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>"46:35"</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>Well, I can say like and Tennessee. There's more farming and stuff along those lines. So we do a lot more for H, than a lot of other places. So, I mean that I think that the base curriculums would be the same, but there should be like clubs and other activities that can be based on the community and we're there.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" s="9">
+      <c r="A66" s="4" t="n">
         <v>10425</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>"46:58"</t>
+        </is>
+      </c>
+      <c r="C66" s="6" t="n"/>
+    </row>
+    <row r="67" ht="20" customHeight="1" s="9">
+      <c r="A67" s="4" t="n">
         <v>10425</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>103</v>
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>"46:58"</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I mean I would think the base of like an example of something in the base. Curriculum would be the federal government, the structure of the federal government because it's the federal government. And then, you know, like something that's more specific to location would be like a state government, how your individual state government is set up</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F8BED3-FD79-F347-BE09-3CA75B1B9312}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/2/20230603-a1r-yc-session2-n_transcript.xlsx
+++ b/data/2/20230603-a1r-yc-session2-n_transcript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
